--- a/data/output/FV2504_FV2410/ORDERS/17002.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="164">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="164">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -594,6 +594,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U63" totalsRowShown="0">
+  <autoFilter ref="A1:U63"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,7 +913,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3889,5 +3922,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17002.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17002.xlsx
@@ -1240,7 +1240,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -2902,52 +2902,52 @@
       <c r="V34" s="5"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="5"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="V35" s="5"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3944,22 +3944,22 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>149</v>
       </c>
       <c r="K55" s="6" t="s">
@@ -3968,19 +3968,19 @@
       <c r="L55" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>149</v>
       </c>
       <c r="V55" s="6" t="s">
@@ -4156,48 +4156,48 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5" t="s">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P59" s="5"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="V59" s="5"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4252,48 +4252,48 @@
       <c r="V60" s="5"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5" t="s">
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P61" s="5"/>
+      <c r="P61" s="2"/>
       <c r="Q61" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="V61" s="5"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
